--- a/seo_analysis_results.xlsx
+++ b/seo_analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VRV</t>
+          <t>冷氣維修</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -532,7 +532,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VRF</t>
+          <t>維修冷氣</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>大金</t>
+          <t>洗冷氣</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -564,7 +564,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>大金VRV</t>
+          <t>冷氣工程</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -580,7 +580,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>冷氣維修</t>
+          <t>冷氣清洗</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -596,7 +596,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>維修冷氣</t>
+          <t>冷氣</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -612,7 +612,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>洗冷氣</t>
+          <t>清洗冷氣</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -628,7 +628,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>冷氣工程</t>
+          <t>冷氣安裝</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -644,7 +644,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>冷氣清洗</t>
+          <t>冷氣公司</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -657,70 +657,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>冷氣</t>
-        </is>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>清洗冷氣</t>
-        </is>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>冷氣安裝</t>
-        </is>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>冷氣公司</t>
-        </is>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
